--- a/consolidacao/levantamento/2022_levantamento_CCSA.xlsx
+++ b/consolidacao/levantamento/2022_levantamento_CCSA.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="Respostas ao formulário 1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Cópia de Respostas ao formulári" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Ajustes" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2730" uniqueCount="756">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2142,6 +2143,120 @@
   </si>
   <si>
     <t>7.17</t>
+  </si>
+  <si>
+    <t>30.16.1353</t>
+  </si>
+  <si>
+    <t>ESTILETE, TIPO LARGO, 20MM, CORPO PLÁSTICO, COMP 11CM, GRADUAL TRAVA DE SEGURANÇA.</t>
+  </si>
+  <si>
+    <t>30.16.1902</t>
+  </si>
+  <si>
+    <t>CARIMBO, 20 MM DIÂMETRO, FORMATO REDONDO, AUTO-ENTINTADO.</t>
+  </si>
+  <si>
+    <t>21.88</t>
+  </si>
+  <si>
+    <t>30.16.2143</t>
+  </si>
+  <si>
+    <t>Garrafa térmica de pressão 1 L.</t>
+  </si>
+  <si>
+    <t>37.26</t>
+  </si>
+  <si>
+    <t>30.16.2672</t>
+  </si>
+  <si>
+    <t>Quadro/Display Multiuso, formato A4, autoadesivo, material poliestireno, cor cristal, transparente, com corte para auxílio na retirada do aviso, modelo referência Acrimet 865.0.</t>
+  </si>
+  <si>
+    <t>36.38</t>
+  </si>
+  <si>
+    <t>30.22.564</t>
+  </si>
+  <si>
+    <t>DISPENSER HIGIENIZADOR. CAP: 800ML. COR: BRANCO</t>
+  </si>
+  <si>
+    <t>15.91</t>
+  </si>
+  <si>
+    <t>30.22.597</t>
+  </si>
+  <si>
+    <t>LIXEIRA PLÁSTICA RETANGULAR COM PEDAL PLÁSTICO E TAMPA, CAPACIDADE 60 LITROS.</t>
+  </si>
+  <si>
+    <t>69.91</t>
+  </si>
+  <si>
+    <t>30.22.677</t>
+  </si>
+  <si>
+    <t>COLETOR DE FIBRA DE VIDRO, PILHAS E BATERIAS.</t>
+  </si>
+  <si>
+    <t>30.24.275</t>
+  </si>
+  <si>
+    <t>TAMPA PARA BACIO SANITÁRIO</t>
+  </si>
+  <si>
+    <t>24.1</t>
+  </si>
+  <si>
+    <t>30.24.3292</t>
+  </si>
+  <si>
+    <t>CANALETA, MATERIAL PVC- CLORETO DE POLIVINILA, TIPO COM TAMPA LISA, COR BEGE,CARACTERÍSTICAS ADICIONAIS COM TAMPA FECHADA SEMDIVISÃO, FECHAMENTO RÍGIDO P, APLICAÇÃO INSTALAÇÃOELÉTRICA, DIMENSÕES 20 X 10 X 2000 MM</t>
+  </si>
+  <si>
+    <t>8.44</t>
+  </si>
+  <si>
+    <t>30.24.3488</t>
+  </si>
+  <si>
+    <t>PORTA, PADRÃO MADEIRA CEDRO, TIPO LISA, ACABAMENTO SUPERFICIAL BASE PINTURA, LARGURA 1 M, ESPESSURA 3,5 CM, CARACTERÍSTICAS ADICIONAIS SEMI-OCA, EMCABEÇADA , MATERIAL MADEIRA, ALTURA 2,10 M</t>
+  </si>
+  <si>
+    <t>214.92</t>
+  </si>
+  <si>
+    <t>30.26.1410</t>
+  </si>
+  <si>
+    <t>30.26.1409 CABO ELETRICO FLEXIVEL, MATERIAL COBRE ELETROLITICO, REVESTIMENTO PVC. TEMPERATURA 70ºC. TENSÃO ISOLAMENTO 750 V, COR VERDE, SEÇÃO NOMINAL CONDUTOR 4MM2, BITOLA CONDUTOR 4 MM2, QUANTIDADES FIO 1</t>
+  </si>
+  <si>
+    <t>279.18</t>
+  </si>
+  <si>
+    <t>30.26.3180</t>
+  </si>
+  <si>
+    <t>CABO ELÉTRICO - 4,2 MM, COR PRETO, FLEXÍVEL</t>
+  </si>
+  <si>
+    <t>267.3</t>
+  </si>
+  <si>
+    <t>30.26.3182</t>
+  </si>
+  <si>
+    <t>CABO ELÉTRICO - 4,2 MM, COR AMARELA, FLEXÍVEL</t>
+  </si>
+  <si>
+    <t>30.26.3183</t>
+  </si>
+  <si>
+    <t>CABO ELÉTRICO - 6 MM, COR PRETO, FLEXÍVEL</t>
   </si>
   <si>
     <t>CADMAT</t>
@@ -2176,7 +2291,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;(#,##0.00)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2201,6 +2316,16 @@
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="5"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF9900FF"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2257,7 +2382,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2306,6 +2431,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2319,6 +2450,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -8972,6 +9107,331 @@
         <v>709</v>
       </c>
     </row>
+    <row r="256">
+      <c r="A256" s="2">
+        <v>45174.66387724537</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="F256" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I256" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2">
+        <v>45174.664335671296</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="F257" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2">
+        <v>45174.66476247685</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="F258" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I258" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2">
+        <v>45174.66525762732</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="F259" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I259" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2">
+        <v>45174.66567689815</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="F260" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I260" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2">
+        <v>45174.66604575231</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="F261" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I261" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2">
+        <v>45174.66634298611</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="F262" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I262" s="3">
+        <v>289.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2">
+        <v>45174.66667875</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="F263" s="3">
+        <v>59.0</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I263" s="4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2">
+        <v>45174.667068807874</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="F264" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I264" s="3" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2">
+        <v>45174.66737587963</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="F265" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I265" s="3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2">
+        <v>45174.667937569444</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F266" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I266" s="3" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2">
+        <v>45174.66875456019</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="F267" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G267" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I267" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2">
+        <v>45174.66907853009</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="F268" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I268" s="3">
+        <v>297.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2">
+        <v>45174.675484884254</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F269" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I269" s="3">
+        <v>396.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8990,7 +9450,13 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="18.88"/>
+    <col customWidth="1" min="1" max="2" width="18.88"/>
+    <col customWidth="1" min="3" max="3" width="10.0"/>
+    <col customWidth="1" min="4" max="4" width="13.5"/>
+    <col customWidth="1" min="5" max="5" width="33.38"/>
+    <col customWidth="1" min="6" max="9" width="18.88"/>
+    <col customWidth="1" hidden="1" min="10" max="16" width="18.88"/>
+    <col customWidth="1" min="17" max="26" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9040,16 +9506,16 @@
         <v>14</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>710</v>
+        <v>748</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>711</v>
+        <v>749</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>712</v>
+        <v>750</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>713</v>
+        <v>751</v>
       </c>
       <c r="U1" s="9" t="s">
         <v>7</v>
@@ -9058,16 +9524,16 @@
         <v>5</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>714</v>
+        <v>752</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>715</v>
+        <v>753</v>
       </c>
       <c r="Y1" s="15" t="s">
-        <v>716</v>
+        <v>754</v>
       </c>
       <c r="Z1" s="13" t="s">
-        <v>715</v>
+        <v>753</v>
       </c>
     </row>
     <row r="2">
@@ -9095,8 +9561,11 @@
       <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="T2" s="3">
+        <v>1.15610119E8</v>
+      </c>
       <c r="W2" s="16" t="s">
-        <v>717</v>
+        <v>755</v>
       </c>
     </row>
     <row r="3">
@@ -9124,6 +9593,9 @@
       <c r="I3" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="T3" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W3" s="17"/>
     </row>
     <row r="4">
@@ -9151,6 +9623,9 @@
       <c r="I4" s="3">
         <v>8.0</v>
       </c>
+      <c r="T4" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W4" s="17"/>
     </row>
     <row r="5">
@@ -9160,10 +9635,10 @@
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="3">
@@ -9177,6 +9652,9 @@
       </c>
       <c r="I5" s="3" t="s">
         <v>29</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1.15610144E8</v>
       </c>
       <c r="W5" s="17"/>
     </row>
@@ -9205,6 +9683,9 @@
       <c r="I6" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="T6" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W6" s="17"/>
     </row>
     <row r="7">
@@ -9214,10 +9695,10 @@
       <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="18" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="3">
@@ -9231,6 +9712,9 @@
       </c>
       <c r="I7" s="3" t="s">
         <v>36</v>
+      </c>
+      <c r="T7" s="3">
+        <v>1.15610144E8</v>
       </c>
       <c r="W7" s="17"/>
     </row>
@@ -9259,6 +9743,9 @@
       <c r="I8" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="T8" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W8" s="17"/>
     </row>
     <row r="9">
@@ -9286,6 +9773,9 @@
       <c r="I9" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="T9" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W9" s="17"/>
     </row>
     <row r="10">
@@ -9313,6 +9803,9 @@
       <c r="I10" s="3">
         <v>28.0</v>
       </c>
+      <c r="T10" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W10" s="17"/>
     </row>
     <row r="11">
@@ -9340,6 +9833,9 @@
       <c r="I11" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="T11" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W11" s="17"/>
     </row>
     <row r="12">
@@ -9367,6 +9863,9 @@
       <c r="I12" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="T12" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W12" s="17"/>
     </row>
     <row r="13">
@@ -9394,6 +9893,9 @@
       <c r="I13" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="T13" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W13" s="17"/>
     </row>
     <row r="14">
@@ -9421,6 +9923,9 @@
       <c r="I14" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="T14" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W14" s="17"/>
     </row>
     <row r="15">
@@ -9448,6 +9953,9 @@
       <c r="I15" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="T15" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W15" s="17"/>
     </row>
     <row r="16">
@@ -9475,6 +9983,9 @@
       <c r="I16" s="3">
         <v>30.0</v>
       </c>
+      <c r="T16" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W16" s="17"/>
     </row>
     <row r="17">
@@ -9502,6 +10013,9 @@
       <c r="I17" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="T17" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W17" s="17"/>
     </row>
     <row r="18">
@@ -9529,6 +10043,9 @@
       <c r="I18" s="3">
         <v>2.0</v>
       </c>
+      <c r="T18" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W18" s="17"/>
     </row>
     <row r="19">
@@ -9556,6 +10073,9 @@
       <c r="I19" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="T19" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W19" s="17"/>
     </row>
     <row r="20">
@@ -9583,6 +10103,9 @@
       <c r="I20" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="T20" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W20" s="17"/>
     </row>
     <row r="21">
@@ -9610,6 +10133,9 @@
       <c r="I21" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="T21" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W21" s="17"/>
     </row>
     <row r="22">
@@ -9637,6 +10163,9 @@
       <c r="I22" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="T22" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W22" s="17"/>
     </row>
     <row r="23">
@@ -9664,6 +10193,9 @@
       <c r="I23" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="T23" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W23" s="17"/>
     </row>
     <row r="24">
@@ -9691,6 +10223,9 @@
       <c r="I24" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="T24" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W24" s="17"/>
     </row>
     <row r="25">
@@ -9718,6 +10253,9 @@
       <c r="I25" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="T25" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W25" s="17"/>
     </row>
     <row r="26">
@@ -9745,6 +10283,9 @@
       <c r="I26" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="T26" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W26" s="17"/>
     </row>
     <row r="27">
@@ -9772,6 +10313,9 @@
       <c r="I27" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="T27" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W27" s="17"/>
     </row>
     <row r="28">
@@ -9799,6 +10343,9 @@
       <c r="I28" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="T28" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W28" s="17"/>
     </row>
     <row r="29">
@@ -9826,6 +10373,9 @@
       <c r="I29" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="T29" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W29" s="17"/>
     </row>
     <row r="30">
@@ -9853,6 +10403,9 @@
       <c r="I30" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="T30" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W30" s="17"/>
     </row>
     <row r="31">
@@ -9865,7 +10418,7 @@
       <c r="D31" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="19" t="s">
         <v>102</v>
       </c>
       <c r="F31" s="3">
@@ -9879,6 +10432,9 @@
       </c>
       <c r="I31" s="4" t="s">
         <v>103</v>
+      </c>
+      <c r="T31" s="3">
+        <v>1.15610116E8</v>
       </c>
       <c r="W31" s="17"/>
     </row>
@@ -9907,6 +10463,9 @@
       <c r="I32" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="T32" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W32" s="17"/>
     </row>
     <row r="33">
@@ -9934,6 +10493,9 @@
       <c r="I33" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="T33" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W33" s="17"/>
     </row>
     <row r="34">
@@ -9961,6 +10523,9 @@
       <c r="I34" s="4" t="s">
         <v>112</v>
       </c>
+      <c r="T34" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W34" s="17"/>
     </row>
     <row r="35">
@@ -9988,6 +10553,9 @@
       <c r="I35" s="3" t="s">
         <v>115</v>
       </c>
+      <c r="T35" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W35" s="17"/>
     </row>
     <row r="36">
@@ -10015,6 +10583,9 @@
       <c r="I36" s="3">
         <v>13.0</v>
       </c>
+      <c r="T36" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W36" s="17"/>
     </row>
     <row r="37">
@@ -10042,6 +10613,9 @@
       <c r="I37" s="3" t="s">
         <v>120</v>
       </c>
+      <c r="T37" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W37" s="17"/>
     </row>
     <row r="38">
@@ -10069,6 +10643,9 @@
       <c r="I38" s="3">
         <v>94.0</v>
       </c>
+      <c r="T38" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W38" s="17"/>
     </row>
     <row r="39">
@@ -10096,6 +10673,9 @@
       <c r="I39" s="4" t="s">
         <v>125</v>
       </c>
+      <c r="T39" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W39" s="17"/>
     </row>
     <row r="40">
@@ -10123,6 +10703,9 @@
       <c r="I40" s="3" t="s">
         <v>128</v>
       </c>
+      <c r="T40" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W40" s="17"/>
     </row>
     <row r="41">
@@ -10150,6 +10733,9 @@
       <c r="I41" s="3" t="s">
         <v>131</v>
       </c>
+      <c r="T41" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W41" s="17"/>
     </row>
     <row r="42">
@@ -10177,6 +10763,9 @@
       <c r="I42" s="3">
         <v>15.0</v>
       </c>
+      <c r="T42" s="3">
+        <v>1.15610116E8</v>
+      </c>
       <c r="W42" s="17"/>
     </row>
     <row r="43">
@@ -10186,10 +10775,10 @@
       <c r="B43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="7" t="s">
         <v>135</v>
       </c>
       <c r="F43" s="3">
@@ -10203,6 +10792,9 @@
       </c>
       <c r="I43" s="4" t="s">
         <v>136</v>
+      </c>
+      <c r="T43" s="3">
+        <v>1.15610116E8</v>
       </c>
       <c r="W43" s="17"/>
     </row>
@@ -14976,4 +15568,18 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>